--- a/tests/test_code/hx711_calibration_script/hx711_calibration_spreadsheet.xlsx
+++ b/tests/test_code/hx711_calibration_script/hx711_calibration_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Business\(2) Refills\Code\Github\refill_station_repository\tests\test_code\hx711_calibration_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC63BDB-8C6E-496E-8746-51B327E6F71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96EEA2-A681-4771-9C0A-149D3B2874FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Known mass (g)</t>
   </si>
@@ -148,7 +148,10 @@
     <t>For the 20kg load cell from ebay</t>
   </si>
   <si>
-    <t>For the TAL220 straight bar load cell</t>
+    <t>For the TAL220 straight bar load cell (UID: 01, attached to MK1_2)</t>
+  </si>
+  <si>
+    <t>For the TAL220 straight bar load cell (UID: 02, attached to MK1_3)</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,10 +304,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1316,6 +1322,502 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Relationship</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0880048221820374E-2"/>
+                  <c:y val="-2.9951881014873141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Factor'!$T$9:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Factor'!$U$9:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31231.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54387.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86681.666666666672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52AC-44A4-A856-C1D6CBF41633}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1778608319"/>
+        <c:axId val="1313291727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1778608319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration Factor'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Known mass (g)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1313291727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1313291727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration Factor'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RawResult (ADC reading)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778608319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1396,6 +1898,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1913,6 +2455,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2499,6 +3557,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1DB155-0FFB-41FD-9512-6830F44F5A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2770,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:Y11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,38 +3880,49 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="T6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+    </row>
+    <row r="7" spans="2:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2834,8 +3941,17 @@
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>150</v>
       </c>
@@ -2849,7 +3965,7 @@
       <c r="K9" s="4">
         <v>150</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <f>(33814+33926+33893)/3</f>
         <v>33877.666666666664</v>
       </c>
@@ -2857,8 +3973,19 @@
         <f>SUM(L9:L11)/SUM(K9:K11)</f>
         <v>223.61074074074077</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T9" s="4">
+        <v>150</v>
+      </c>
+      <c r="U9" s="19">
+        <f>(31027+31213+31455)/3</f>
+        <v>31231.666666666668</v>
+      </c>
+      <c r="W9">
+        <f>SUM(U9:U11)/SUM(T9:T11)</f>
+        <v>191.44518518518521</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>300</v>
       </c>
@@ -2868,12 +3995,19 @@
       <c r="K10" s="4">
         <v>300</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <f>(66445+66457+66450)/3</f>
         <v>66450.666666666672</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T10" s="4">
+        <v>300</v>
+      </c>
+      <c r="U10" s="19">
+        <f>(53939+54398+54825)/3</f>
+        <v>54387.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>450</v>
       </c>
@@ -2883,15 +4017,23 @@
       <c r="K11" s="4">
         <v>450</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <f>(100907+100916+100941)/3</f>
         <v>100921.33333333333</v>
       </c>
+      <c r="T11" s="4">
+        <v>450</v>
+      </c>
+      <c r="U11" s="19">
+        <f>(86332+86703+87010)/3</f>
+        <v>86681.666666666672</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K6:P6"/>
+    <mergeCell ref="T6:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2937,36 +4079,36 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="M4" s="18" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="R4" s="18" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="R4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">

--- a/tests/test_code/hx711_calibration_script/hx711_calibration_spreadsheet.xlsx
+++ b/tests/test_code/hx711_calibration_script/hx711_calibration_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Business\(2) Refills\Code\Github\refill_station_repository\tests\test_code\hx711_calibration_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96EEA2-A681-4771-9C0A-149D3B2874FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A81F47-EF0A-44C3-B073-863F50564DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration Factor" sheetId="1" r:id="rId1"/>
@@ -1503,13 +1503,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31231.666666666668</c:v>
+                  <c:v>28851.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54387.333333333336</c:v>
+                  <c:v>63273.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86681.666666666672</c:v>
+                  <c:v>99301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,12 +3977,12 @@
         <v>150</v>
       </c>
       <c r="U9" s="19">
-        <f>(31027+31213+31455)/3</f>
-        <v>31231.666666666668</v>
+        <f>(28556+28935+29063)/3</f>
+        <v>28851.333333333332</v>
       </c>
       <c r="W9">
         <f>SUM(U9:U11)/SUM(T9:T11)</f>
-        <v>191.44518518518521</v>
+        <v>212.69555555555556</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -4003,8 +4003,8 @@
         <v>300</v>
       </c>
       <c r="U10" s="19">
-        <f>(53939+54398+54825)/3</f>
-        <v>54387.333333333336</v>
+        <f>(63059+63370+63392)/3</f>
+        <v>63273.666666666664</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -4025,8 +4025,8 @@
         <v>450</v>
       </c>
       <c r="U11" s="19">
-        <f>(86332+86703+87010)/3</f>
-        <v>86681.666666666672</v>
+        <f>(99695+99211+98997)/3</f>
+        <v>99301</v>
       </c>
     </row>
   </sheetData>
